--- a/config_2.9/activity_exchange_server.xlsx
+++ b/config_2.9/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="291">
   <si>
     <t>id|</t>
   </si>
@@ -1433,6 +1433,26 @@
   </si>
   <si>
     <t>6000,6000,6000,6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--恭喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发财礼包--恭喜发财</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0,0,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,1,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1519,7 +1539,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1553,6 +1573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,7 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1746,6 +1772,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2026,8 +2073,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3059,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="39" customFormat="1">
+    <row r="33" spans="1:16" s="39" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3088,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="26" customFormat="1">
+    <row r="34" spans="1:16" s="26" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3119,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="46" customFormat="1">
+    <row r="35" spans="1:16" s="46" customFormat="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3150,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="29" customFormat="1">
+    <row r="36" spans="1:16" s="29" customFormat="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3181,38 +3228,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="26" customFormat="1">
-      <c r="A37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" s="26" customFormat="1">
-      <c r="A38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" s="26" customFormat="1">
-      <c r="A39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" s="26" customFormat="1">
+    <row r="37" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D37" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="59">
+        <v>1</v>
+      </c>
+      <c r="I37" s="60"/>
+      <c r="J37" s="59">
+        <v>36</v>
+      </c>
+      <c r="K37" s="61">
+        <v>1</v>
+      </c>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+    </row>
+    <row r="38" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D38" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" s="59">
+        <v>1</v>
+      </c>
+      <c r="I38" s="60"/>
+      <c r="J38" s="59">
+        <v>37</v>
+      </c>
+      <c r="K38" s="61">
+        <v>1</v>
+      </c>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+    </row>
+    <row r="39" spans="1:16" s="26" customFormat="1" ht="16.5">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="57">
+        <v>1613433600</v>
+      </c>
+      <c r="D39" s="57">
+        <v>1614009599</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="59">
+        <v>1</v>
+      </c>
+      <c r="I39" s="60"/>
+      <c r="J39" s="59">
+        <v>38</v>
+      </c>
+      <c r="K39" s="61">
+        <v>1</v>
+      </c>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+    </row>
+    <row r="40" spans="1:16" s="26" customFormat="1">
       <c r="A40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3221,7 +3330,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="26" customFormat="1">
+    <row r="41" spans="1:16" s="26" customFormat="1">
       <c r="A41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3230,7 +3339,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="26" customFormat="1">
+    <row r="42" spans="1:16" s="26" customFormat="1">
       <c r="A42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3239,7 +3348,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="26" customFormat="1">
+    <row r="44" spans="1:16" s="26" customFormat="1">
       <c r="A44" s="7"/>
       <c r="B44" s="54"/>
       <c r="C44" s="7"/>
@@ -3251,7 +3360,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="26" customFormat="1">
+    <row r="45" spans="1:16" s="26" customFormat="1">
       <c r="A45" s="7"/>
       <c r="B45" s="54"/>
       <c r="C45" s="7"/>
@@ -3263,7 +3372,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="26" customFormat="1">
+    <row r="46" spans="1:16" s="26" customFormat="1">
       <c r="A46" s="7"/>
       <c r="B46" s="54"/>
       <c r="C46" s="7"/>
@@ -3275,7 +3384,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="26" customFormat="1">
+    <row r="47" spans="1:16" s="26" customFormat="1">
       <c r="A47" s="7"/>
       <c r="B47" s="54"/>
       <c r="C47" s="7"/>
@@ -3285,7 +3394,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="26" customFormat="1">
+    <row r="48" spans="1:16" s="26" customFormat="1">
       <c r="A48" s="7"/>
       <c r="B48" s="54"/>
       <c r="C48" s="7"/>
@@ -3668,13 +3777,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:M219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H207" sqref="H207"/>
+      <selection pane="bottomRight" activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9127,6 +9236,258 @@
       <c r="I210" s="20"/>
       <c r="J210" s="20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="7" customFormat="1">
+      <c r="A211" s="7">
+        <v>210</v>
+      </c>
+      <c r="B211" s="62">
+        <v>36</v>
+      </c>
+      <c r="C211" s="62">
+        <v>1</v>
+      </c>
+      <c r="D211" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E211" s="62"/>
+      <c r="F211" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="H211" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I211" s="57"/>
+      <c r="J211" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="7" customFormat="1">
+      <c r="A212" s="7">
+        <v>211</v>
+      </c>
+      <c r="B212" s="62">
+        <v>36</v>
+      </c>
+      <c r="C212" s="62">
+        <v>2</v>
+      </c>
+      <c r="D212" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E212" s="62"/>
+      <c r="F212" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G212" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H212" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="I212" s="57"/>
+      <c r="J212" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="7" customFormat="1">
+      <c r="A213" s="7">
+        <v>212</v>
+      </c>
+      <c r="B213" s="62">
+        <v>36</v>
+      </c>
+      <c r="C213" s="62">
+        <v>3</v>
+      </c>
+      <c r="D213" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E213" s="62"/>
+      <c r="F213" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H213" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="7" customFormat="1">
+      <c r="A214" s="7">
+        <v>213</v>
+      </c>
+      <c r="B214" s="62">
+        <v>37</v>
+      </c>
+      <c r="C214" s="62">
+        <v>1</v>
+      </c>
+      <c r="D214" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E214" s="62"/>
+      <c r="F214" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H214" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I214" s="57"/>
+      <c r="J214" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" s="7" customFormat="1">
+      <c r="A215" s="7">
+        <v>214</v>
+      </c>
+      <c r="B215" s="62">
+        <v>37</v>
+      </c>
+      <c r="C215" s="62">
+        <v>2</v>
+      </c>
+      <c r="D215" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E215" s="62"/>
+      <c r="F215" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H215" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="I215" s="57"/>
+      <c r="J215" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="7" customFormat="1">
+      <c r="A216" s="7">
+        <v>215</v>
+      </c>
+      <c r="B216" s="62">
+        <v>37</v>
+      </c>
+      <c r="C216" s="62">
+        <v>3</v>
+      </c>
+      <c r="D216" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E216" s="62"/>
+      <c r="F216" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G216" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="H216" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I216" s="57"/>
+      <c r="J216" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="7" customFormat="1">
+      <c r="A217" s="7">
+        <v>216</v>
+      </c>
+      <c r="B217" s="62">
+        <v>38</v>
+      </c>
+      <c r="C217" s="62">
+        <v>1</v>
+      </c>
+      <c r="D217" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E217" s="62"/>
+      <c r="F217" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G217" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="H217" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="I217" s="57"/>
+      <c r="J217" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="7" customFormat="1">
+      <c r="A218" s="7">
+        <v>217</v>
+      </c>
+      <c r="B218" s="62">
+        <v>38</v>
+      </c>
+      <c r="C218" s="62">
+        <v>2</v>
+      </c>
+      <c r="D218" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E218" s="62"/>
+      <c r="F218" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="H218" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="I218" s="57"/>
+      <c r="J218" s="57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="7" customFormat="1">
+      <c r="A219" s="7">
+        <v>218</v>
+      </c>
+      <c r="B219" s="62">
+        <v>38</v>
+      </c>
+      <c r="C219" s="62">
+        <v>3</v>
+      </c>
+      <c r="D219" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E219" s="62"/>
+      <c r="F219" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G219" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="H219" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I219" s="57"/>
+      <c r="J219" s="57">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/activity_exchange_server.xlsx
+++ b/config_2.9/activity_exchange_server.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="285">
   <si>
     <t>id|</t>
   </si>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>award_cfg_id|配置id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_id|兑换奖励id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1340,22 +1336,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_k","prop_gdn_l",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_k","prop_gdn_l",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年好礼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>过大年</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1393,14 +1373,6 @@
   </si>
   <si>
     <t>1500,1500,1500,1500,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800,800,800,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,600,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1447,15 +1419,16 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_l",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_gdn_x","prop_gdn_k",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_gdn_x","prop_gdn_n","prop_gdn_l",</t>
+    <t>800,800,0,800,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id|兑换奖励id
+（一键兑换时，奖励消耗从大到小设置）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,600,0,0,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1463,7 +1436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,7 +1515,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1570,6 +1543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,7 +1592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1757,6 +1736,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2037,11 +2022,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.375" style="4" customWidth="1"/>
@@ -2059,7 +2044,7 @@
     <col min="17" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2073,10 +2058,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
@@ -2097,7 +2082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="16.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2113,7 +2098,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -2128,17 +2113,17 @@
         <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>1592868600</v>
@@ -2149,7 +2134,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -2167,12 +2152,12 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>1597707000</v>
@@ -2183,7 +2168,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2200,12 +2185,12 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1">
         <v>1601335800</v>
@@ -2216,7 +2201,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -2231,12 +2216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>1606176000</v>
@@ -2247,7 +2232,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2264,12 +2249,12 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1">
         <v>1606176000</v>
@@ -2280,7 +2265,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -2297,12 +2282,12 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="7">
         <v>1607385600</v>
@@ -2313,7 +2298,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2330,12 +2315,12 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="7">
         <v>1607385600</v>
@@ -2346,7 +2331,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2363,12 +2348,12 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
     </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="7">
         <v>1607990400</v>
@@ -2379,7 +2364,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2396,12 +2381,12 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="11" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7">
         <v>1607990400</v>
@@ -2412,7 +2397,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2429,12 +2414,12 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
     </row>
-    <row r="12" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="28">
         <v>1609200000</v>
@@ -2445,7 +2430,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2462,12 +2447,12 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28">
         <v>1609200000</v>
@@ -2478,7 +2463,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2495,12 +2480,12 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
     </row>
-    <row r="14" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="28">
         <v>1609200000</v>
@@ -2511,7 +2496,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2528,12 +2513,12 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="28">
         <v>1609200000</v>
@@ -2544,7 +2529,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2561,12 +2546,12 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="28">
         <v>1609804800</v>
@@ -2577,7 +2562,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2594,12 +2579,12 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
     </row>
-    <row r="17" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="28">
         <v>1609804800</v>
@@ -2610,7 +2595,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2627,12 +2612,12 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
     </row>
-    <row r="18" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="39" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="38">
         <v>1610409600</v>
@@ -2641,7 +2626,7 @@
         <v>1610985599</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2656,12 +2641,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="26" customFormat="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="7">
         <v>1610409600</v>
@@ -2672,7 +2657,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2687,12 +2672,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="39" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="7">
         <v>1611014400</v>
@@ -2701,7 +2686,7 @@
         <v>1611590399</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2716,12 +2701,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="26" customFormat="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="7">
         <v>1611014400</v>
@@ -2732,7 +2717,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2747,12 +2732,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="7">
         <v>1611014400</v>
@@ -2763,7 +2748,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H22" s="38">
         <v>1</v>
@@ -2778,12 +2763,12 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="7">
         <v>1611014400</v>
@@ -2794,7 +2779,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H23" s="38">
         <v>1</v>
@@ -2809,12 +2794,12 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:16" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="26" customFormat="1" ht="16.5">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="7">
         <v>1611014400</v>
@@ -2825,7 +2810,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="38">
         <v>1</v>
@@ -2840,12 +2825,12 @@
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
     </row>
-    <row r="25" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="26" customFormat="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="7">
         <v>1611014400</v>
@@ -2854,7 +2839,7 @@
         <v>1611590399</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H25" s="38">
         <v>1</v>
@@ -2867,12 +2852,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="26" customFormat="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="7">
         <v>1611014400</v>
@@ -2881,7 +2866,7 @@
         <v>1611590399</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H26" s="38">
         <v>1</v>
@@ -2894,12 +2879,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="26" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="7">
         <v>1611014400</v>
@@ -2910,7 +2895,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H27" s="38">
         <v>1</v>
@@ -2923,12 +2908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="26" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="7">
         <v>1611014400</v>
@@ -2939,7 +2924,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H28" s="38">
         <v>1</v>
@@ -2952,12 +2937,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="26" customFormat="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="7">
         <v>1611014400</v>
@@ -2968,7 +2953,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H29" s="38">
         <v>1</v>
@@ -2981,12 +2966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="26" customFormat="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" s="7">
         <v>1611014400</v>
@@ -2997,7 +2982,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H30" s="38">
         <v>1</v>
@@ -3010,12 +2995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="39" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="7">
         <v>1611619200</v>
@@ -3024,7 +3009,7 @@
         <v>1612195199</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3039,12 +3024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="26" customFormat="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="7">
         <v>1611619200</v>
@@ -3055,7 +3040,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3070,12 +3055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="39" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="7">
         <v>1612224000</v>
@@ -3084,7 +3069,7 @@
         <v>1612799999</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3099,12 +3084,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="26" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="7">
         <v>1612224000</v>
@@ -3115,7 +3100,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3130,12 +3115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="46" customFormat="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" s="16">
         <v>1612828800</v>
@@ -3146,7 +3131,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="47" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H35" s="48">
         <v>1</v>
@@ -3161,454 +3146,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="29" customFormat="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="16">
+      <c r="B36" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="20">
         <v>1612828800</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="20">
         <v>1613404799</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="H36" s="48">
-        <v>1</v>
-      </c>
-      <c r="I36" s="16">
-        <v>25</v>
-      </c>
-      <c r="J36" s="45">
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="44">
+        <v>1</v>
+      </c>
+      <c r="I36" s="20">
+        <v>26</v>
+      </c>
+      <c r="J36" s="34">
         <v>35</v>
       </c>
-      <c r="K36" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D37" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="H37" s="48">
-        <v>1</v>
-      </c>
-      <c r="I37" s="16">
-        <v>25</v>
-      </c>
-      <c r="J37" s="45">
-        <v>36</v>
-      </c>
-      <c r="K37" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D38" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="H38" s="48">
-        <v>1</v>
-      </c>
-      <c r="I38" s="16">
-        <v>25</v>
-      </c>
-      <c r="J38" s="45">
-        <v>37</v>
-      </c>
-      <c r="K38" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="C39" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D39" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="H39" s="48">
-        <v>1</v>
-      </c>
-      <c r="I39" s="16">
-        <v>25</v>
-      </c>
-      <c r="J39" s="45">
-        <v>38</v>
-      </c>
-      <c r="K39" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D40" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="H40" s="48">
-        <v>1</v>
-      </c>
-      <c r="I40" s="16">
-        <v>25</v>
-      </c>
-      <c r="J40" s="45">
-        <v>39</v>
-      </c>
-      <c r="K40" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D41" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="H41" s="48">
-        <v>1</v>
-      </c>
-      <c r="I41" s="16">
-        <v>25</v>
-      </c>
-      <c r="J41" s="45">
-        <v>40</v>
-      </c>
-      <c r="K41" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="C42" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D42" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="H42" s="48">
-        <v>1</v>
-      </c>
-      <c r="I42" s="16">
-        <v>25</v>
-      </c>
-      <c r="J42" s="45">
-        <v>41</v>
-      </c>
-      <c r="K42" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D43" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="H43" s="44">
-        <v>1</v>
-      </c>
-      <c r="I43" s="20">
-        <v>26</v>
-      </c>
-      <c r="J43" s="34">
-        <v>42</v>
-      </c>
-      <c r="K43" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D44" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="H44" s="44">
-        <v>1</v>
-      </c>
-      <c r="I44" s="20">
-        <v>26</v>
-      </c>
-      <c r="J44" s="34">
-        <v>43</v>
-      </c>
-      <c r="K44" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D45" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="H45" s="44">
-        <v>1</v>
-      </c>
-      <c r="I45" s="20">
-        <v>26</v>
-      </c>
-      <c r="J45" s="34">
-        <v>44</v>
-      </c>
-      <c r="K45" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D46" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="H46" s="44">
-        <v>1</v>
-      </c>
-      <c r="I46" s="20">
-        <v>26</v>
-      </c>
-      <c r="J46" s="34">
-        <v>45</v>
-      </c>
-      <c r="K46" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C47" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D47" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="H47" s="44">
-        <v>1</v>
-      </c>
-      <c r="I47" s="20">
-        <v>26</v>
-      </c>
-      <c r="J47" s="34">
-        <v>46</v>
-      </c>
-      <c r="K47" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D48" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="H48" s="44">
-        <v>1</v>
-      </c>
-      <c r="I48" s="20">
-        <v>26</v>
-      </c>
-      <c r="J48" s="34">
-        <v>47</v>
-      </c>
-      <c r="K48" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C49" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D49" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="H49" s="44">
-        <v>1</v>
-      </c>
-      <c r="I49" s="20">
-        <v>26</v>
-      </c>
-      <c r="J49" s="34">
-        <v>48</v>
-      </c>
-      <c r="K49" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C50" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D50" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="H50" s="44">
-        <v>1</v>
-      </c>
-      <c r="I50" s="20">
-        <v>26</v>
-      </c>
-      <c r="J50" s="34">
-        <v>49</v>
-      </c>
-      <c r="K50" s="29">
-        <v>1</v>
-      </c>
+      <c r="K36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="26" customFormat="1">
+      <c r="A37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" s="26" customFormat="1">
+      <c r="A38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" s="26" customFormat="1">
+      <c r="A39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" s="26" customFormat="1">
+      <c r="A40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" s="26" customFormat="1">
+      <c r="A41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" s="26" customFormat="1">
+      <c r="A42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="44" spans="1:11" s="26" customFormat="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" s="26" customFormat="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" s="26" customFormat="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:11" s="26" customFormat="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" s="26" customFormat="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" s="26" customFormat="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" s="26" customFormat="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3624,10 +3325,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
@@ -3636,7 +3337,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3650,307 +3351,307 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="7" customFormat="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="7" customFormat="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="7" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="7" customFormat="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="7" customFormat="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="7" customFormat="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>270</v>
+      <c r="B27" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3965,14 +3666,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M210"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E183" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H201" sqref="H201"/>
+      <selection pane="bottomRight" activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="21" style="1" customWidth="1"/>
@@ -3987,7 +3688,7 @@
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3995,40 +3696,40 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4039,13 +3740,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -4054,7 +3755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4065,22 +3766,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4091,19 +3792,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4114,16 +3815,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4134,19 +3835,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4157,19 +3858,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4180,19 +3881,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4203,22 +3904,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4229,19 +3930,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4252,19 +3953,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4275,20 +3976,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4299,21 +4000,21 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4324,21 +4025,21 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4350,19 +4051,19 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4374,19 +4075,19 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4398,19 +4099,19 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4421,21 +4122,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4446,21 +4147,21 @@
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4471,21 +4172,21 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4498,16 +4199,16 @@
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4520,19 +4221,19 @@
       <c r="D22" s="8"/>
       <c r="E22" s="11"/>
       <c r="F22" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4545,19 +4246,19 @@
       <c r="D23" s="8"/>
       <c r="E23" s="11"/>
       <c r="F23" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4570,19 +4271,19 @@
       <c r="D24" s="8"/>
       <c r="E24" s="11"/>
       <c r="F24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4593,23 +4294,23 @@
         <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="7" customFormat="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -4620,21 +4321,21 @@
         <v>1</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="7" customFormat="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -4645,21 +4346,21 @@
         <v>2</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="7" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -4670,21 +4371,21 @@
         <v>3</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="7" customFormat="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -4695,20 +4396,20 @@
         <v>4</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="7" customFormat="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -4719,23 +4420,23 @@
         <v>5</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J30" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="7" customFormat="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -4746,23 +4447,23 @@
         <v>6</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="7" customFormat="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -4773,23 +4474,23 @@
         <v>7</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="7" customFormat="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -4800,23 +4501,23 @@
         <v>8</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="7" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -4827,21 +4528,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="7" customFormat="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -4852,21 +4553,21 @@
         <v>2</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J35" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="7" customFormat="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -4877,21 +4578,21 @@
         <v>3</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="7" customFormat="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -4902,20 +4603,20 @@
         <v>4</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="7" customFormat="1">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -4926,23 +4627,23 @@
         <v>5</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="7" customFormat="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -4953,23 +4654,23 @@
         <v>6</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J39" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="7" customFormat="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -4980,23 +4681,23 @@
         <v>7</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="7" customFormat="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -5007,23 +4708,23 @@
         <v>8</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="7" customFormat="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -5034,21 +4735,21 @@
         <v>1</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -5059,21 +4760,21 @@
         <v>2</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J43" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="7" customFormat="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -5084,21 +4785,21 @@
         <v>3</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J44" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="7" customFormat="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -5109,20 +4810,20 @@
         <v>4</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="7" customFormat="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -5133,23 +4834,23 @@
         <v>5</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="7" customFormat="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -5160,23 +4861,23 @@
         <v>6</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="7" customFormat="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -5187,23 +4888,23 @@
         <v>7</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J48" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="7" customFormat="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -5214,23 +4915,23 @@
         <v>8</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J49" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="7" customFormat="1">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -5241,21 +4942,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="7" customFormat="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -5266,21 +4967,21 @@
         <v>2</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
       <c r="H51" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="7" customFormat="1">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -5291,21 +4992,21 @@
         <v>3</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="7" customFormat="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -5316,20 +5017,20 @@
         <v>4</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="7" customFormat="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -5340,23 +5041,23 @@
         <v>5</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="7" customFormat="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -5367,23 +5068,23 @@
         <v>6</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J55" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="7" customFormat="1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -5394,23 +5095,23 @@
         <v>7</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J56" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="7" customFormat="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -5421,23 +5122,23 @@
         <v>8</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="30"/>
       <c r="F57" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J57" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="7" customFormat="1">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -5448,21 +5149,21 @@
         <v>1</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J58" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="7" customFormat="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -5473,21 +5174,21 @@
         <v>2</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J59" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="7" customFormat="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -5498,21 +5199,21 @@
         <v>3</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="7" customFormat="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -5523,20 +5224,20 @@
         <v>4</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="7" customFormat="1">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -5547,23 +5248,23 @@
         <v>5</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62" s="30"/>
       <c r="F62" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J62" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="7" customFormat="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -5574,23 +5275,23 @@
         <v>6</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J63" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="7" customFormat="1">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -5601,23 +5302,23 @@
         <v>7</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J64" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="7" customFormat="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -5628,23 +5329,23 @@
         <v>8</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="7" customFormat="1">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -5655,21 +5356,21 @@
         <v>1</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="7" customFormat="1">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -5680,21 +5381,21 @@
         <v>2</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
       <c r="H67" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J67" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="7" customFormat="1">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -5705,21 +5406,21 @@
         <v>3</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="7" customFormat="1">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -5730,20 +5431,20 @@
         <v>4</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="7" customFormat="1">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -5754,23 +5455,23 @@
         <v>5</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J70" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="7" customFormat="1">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -5781,23 +5482,23 @@
         <v>6</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J71" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="7" customFormat="1">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -5808,23 +5509,23 @@
         <v>7</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" s="30"/>
       <c r="F72" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J72" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="7" customFormat="1">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -5835,23 +5536,23 @@
         <v>8</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J73" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="7" customFormat="1">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -5862,21 +5563,21 @@
         <v>1</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
       <c r="H74" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="7" customFormat="1">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -5887,21 +5588,21 @@
         <v>2</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J75" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="7" customFormat="1">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -5912,21 +5613,21 @@
         <v>3</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J76" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="7" customFormat="1">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -5937,20 +5638,20 @@
         <v>4</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="7" customFormat="1">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -5961,23 +5662,23 @@
         <v>5</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J78" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" s="7" customFormat="1">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -5988,23 +5689,23 @@
         <v>6</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J79" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" s="7" customFormat="1">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -6015,23 +5716,23 @@
         <v>7</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J80" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="7" customFormat="1">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -6042,23 +5743,23 @@
         <v>8</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J81" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="7" customFormat="1">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -6069,21 +5770,21 @@
         <v>1</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
       <c r="H82" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J82" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="7" customFormat="1">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -6094,21 +5795,21 @@
         <v>2</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
       <c r="H83" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J83" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="7" customFormat="1">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -6119,21 +5820,21 @@
         <v>3</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
       <c r="H84" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J84" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="7" customFormat="1">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -6144,20 +5845,20 @@
         <v>4</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="30"/>
       <c r="F85" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="7" customFormat="1">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -6168,23 +5869,23 @@
         <v>5</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="30"/>
       <c r="F86" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J86" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="7" customFormat="1">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -6195,23 +5896,23 @@
         <v>6</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="30"/>
       <c r="F87" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J87" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" s="7" customFormat="1">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -6222,23 +5923,23 @@
         <v>7</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="30"/>
       <c r="F88" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J88" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" s="7" customFormat="1">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -6249,23 +5950,23 @@
         <v>8</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="30"/>
       <c r="F89" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J89" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" s="7" customFormat="1">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -6276,21 +5977,21 @@
         <v>1</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
       <c r="H90" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J90" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="7" customFormat="1">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -6301,21 +6002,21 @@
         <v>2</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
       <c r="H91" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J91" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" s="7" customFormat="1">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -6326,21 +6027,21 @@
         <v>3</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
       <c r="H92" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J92" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" s="7" customFormat="1">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -6351,20 +6052,20 @@
         <v>4</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E93" s="30"/>
       <c r="F93" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="7" customFormat="1">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -6375,23 +6076,23 @@
         <v>5</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J94" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" s="7" customFormat="1">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -6402,23 +6103,23 @@
         <v>6</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E95" s="30"/>
       <c r="F95" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J95" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" s="7" customFormat="1">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -6429,23 +6130,23 @@
         <v>7</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96" s="30"/>
       <c r="F96" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J96" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" s="7" customFormat="1">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -6456,23 +6157,23 @@
         <v>8</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E97" s="30"/>
       <c r="F97" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J97" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" s="7" customFormat="1">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -6483,21 +6184,21 @@
         <v>1</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
       <c r="H98" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J98" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" s="7" customFormat="1">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -6508,21 +6209,21 @@
         <v>2</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
       <c r="H99" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J99" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" s="7" customFormat="1">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -6533,21 +6234,21 @@
         <v>3</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
       <c r="H100" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J100" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" s="7" customFormat="1">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -6558,20 +6259,20 @@
         <v>4</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="7" customFormat="1">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -6582,23 +6283,23 @@
         <v>5</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J102" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" s="7" customFormat="1">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -6609,23 +6310,23 @@
         <v>6</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" s="30"/>
       <c r="F103" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J103" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" s="7" customFormat="1">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -6636,23 +6337,23 @@
         <v>7</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" s="30"/>
       <c r="F104" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J104" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" s="7" customFormat="1">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -6663,23 +6364,23 @@
         <v>8</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J105" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" s="7" customFormat="1">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -6690,21 +6391,21 @@
         <v>1</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
       <c r="H106" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J106" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" s="7" customFormat="1">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -6715,21 +6416,21 @@
         <v>2</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
       <c r="H107" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J107" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" s="7" customFormat="1">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -6740,21 +6441,21 @@
         <v>3</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
       <c r="H108" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J108" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" s="7" customFormat="1">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -6765,20 +6466,20 @@
         <v>4</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -6789,23 +6490,23 @@
         <v>5</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J110" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -6816,23 +6517,23 @@
         <v>6</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J111" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" s="7" customFormat="1">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -6843,23 +6544,23 @@
         <v>7</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J112" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -6870,23 +6571,23 @@
         <v>8</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E113" s="30"/>
       <c r="F113" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J113" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" s="7" customFormat="1">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -6897,21 +6598,21 @@
         <v>1</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
       <c r="H114" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J114" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" s="7" customFormat="1">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -6922,21 +6623,21 @@
         <v>2</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
       <c r="H115" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J115" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" s="7" customFormat="1">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -6947,21 +6648,21 @@
         <v>3</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
       <c r="H116" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J116" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" s="7" customFormat="1">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -6972,20 +6673,20 @@
         <v>4</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H117" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="7" customFormat="1">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -6996,23 +6697,23 @@
         <v>5</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J118" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" s="7" customFormat="1">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -7023,23 +6724,23 @@
         <v>6</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J119" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" s="7" customFormat="1">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -7050,23 +6751,23 @@
         <v>7</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J120" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" s="7" customFormat="1">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -7077,23 +6778,23 @@
         <v>8</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H121" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J121" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" s="7" customFormat="1">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -7104,21 +6805,21 @@
         <v>1</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E122" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32"/>
       <c r="H122" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J122" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" s="7" customFormat="1">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -7129,21 +6830,21 @@
         <v>2</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
       <c r="H123" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J123" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" s="7" customFormat="1">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -7154,20 +6855,20 @@
         <v>3</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G124" s="32"/>
       <c r="H124" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J124" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" s="7" customFormat="1">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -7178,20 +6879,20 @@
         <v>4</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E125" s="30"/>
       <c r="F125" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H125" s="32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -7202,23 +6903,23 @@
         <v>5</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E126" s="30"/>
       <c r="F126" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J126" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -7229,23 +6930,23 @@
         <v>6</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127" s="30"/>
       <c r="F127" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J127" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" s="7" customFormat="1">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -7256,23 +6957,23 @@
         <v>7</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" s="30"/>
       <c r="F128" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J128" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -7283,23 +6984,23 @@
         <v>8</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129" s="30"/>
       <c r="F129" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H129" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J129" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" s="7" customFormat="1">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -7310,21 +7011,21 @@
         <v>1</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="32"/>
       <c r="H130" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J130" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" s="7" customFormat="1">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -7335,21 +7036,21 @@
         <v>2</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
       <c r="H131" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J131" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" s="7" customFormat="1">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -7360,21 +7061,21 @@
         <v>3</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E132" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
       <c r="H132" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J132" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" s="7" customFormat="1">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -7385,20 +7086,20 @@
         <v>4</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="30"/>
       <c r="F133" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="7" customFormat="1">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -7409,23 +7110,23 @@
         <v>5</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E134" s="30"/>
       <c r="F134" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J134" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" s="7" customFormat="1">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -7436,23 +7137,23 @@
         <v>6</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E135" s="30"/>
       <c r="F135" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J135" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" s="7" customFormat="1">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -7463,23 +7164,23 @@
         <v>7</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E136" s="30"/>
       <c r="F136" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J136" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" s="7" customFormat="1">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -7490,23 +7191,23 @@
         <v>8</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E137" s="30"/>
       <c r="F137" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H137" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J137" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" s="7" customFormat="1">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -7517,21 +7218,21 @@
         <v>1</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E138" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32"/>
       <c r="H138" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J138" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" s="7" customFormat="1">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -7542,21 +7243,21 @@
         <v>2</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="32"/>
       <c r="H139" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J139" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" s="7" customFormat="1">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -7567,20 +7268,20 @@
         <v>3</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E140" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G140" s="32"/>
       <c r="H140" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J140" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" s="7" customFormat="1">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -7591,20 +7292,20 @@
         <v>4</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E141" s="30"/>
       <c r="F141" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H141" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -7615,23 +7316,23 @@
         <v>5</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E142" s="30"/>
       <c r="F142" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J142" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -7642,23 +7343,23 @@
         <v>6</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E143" s="30"/>
       <c r="F143" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H143" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J143" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" s="7" customFormat="1">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -7669,23 +7370,23 @@
         <v>7</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E144" s="30"/>
       <c r="F144" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J144" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -7696,23 +7397,23 @@
         <v>8</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E145" s="30"/>
       <c r="F145" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H145" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J145" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" s="7" customFormat="1">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -7723,21 +7424,21 @@
         <v>1</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
       <c r="H146" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J146" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" s="7" customFormat="1">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -7748,21 +7449,21 @@
         <v>2</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="32"/>
       <c r="H147" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J147" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" s="7" customFormat="1">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -7773,21 +7474,21 @@
         <v>3</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E148" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
       <c r="H148" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J148" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" s="7" customFormat="1">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -7798,20 +7499,20 @@
         <v>4</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E149" s="30"/>
       <c r="F149" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="7" customFormat="1">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -7822,23 +7523,23 @@
         <v>5</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E150" s="30"/>
       <c r="F150" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J150" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" s="7" customFormat="1">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -7849,23 +7550,23 @@
         <v>6</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E151" s="30"/>
       <c r="F151" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H151" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J151" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" s="7" customFormat="1">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -7876,23 +7577,23 @@
         <v>7</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E152" s="30"/>
       <c r="F152" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J152" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" s="7" customFormat="1">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -7903,23 +7604,23 @@
         <v>8</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E153" s="30"/>
       <c r="F153" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J153" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" s="7" customFormat="1">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -7930,23 +7631,23 @@
         <v>1</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E154" s="30"/>
       <c r="F154" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G154" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G154" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="H154" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J154" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" s="7" customFormat="1">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -7957,23 +7658,23 @@
         <v>1</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E155" s="30"/>
       <c r="F155" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H155" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J155" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" s="7" customFormat="1">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -7984,23 +7685,23 @@
         <v>1</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E156" s="30"/>
       <c r="F156" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J156" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" s="7" customFormat="1">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -8011,23 +7712,23 @@
         <v>1</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E157" s="30"/>
       <c r="F157" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H157" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J157" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" s="7" customFormat="1">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -8038,23 +7739,23 @@
         <v>1</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E158" s="30"/>
       <c r="F158" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J158" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" s="7" customFormat="1">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -8065,23 +7766,23 @@
         <v>1</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E159" s="30"/>
       <c r="F159" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J159" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" s="7" customFormat="1">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -8092,23 +7793,23 @@
         <v>1</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E160" s="30"/>
       <c r="F160" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H160" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J160" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" s="7" customFormat="1">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -8119,23 +7820,23 @@
         <v>1</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E161" s="30"/>
       <c r="F161" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H161" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J161" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" s="7" customFormat="1">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -8146,23 +7847,23 @@
         <v>1</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E162" s="30"/>
       <c r="F162" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J162" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" s="7" customFormat="1">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -8173,21 +7874,21 @@
         <v>1</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E163" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="32"/>
       <c r="H163" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J163" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" s="7" customFormat="1">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -8198,21 +7899,21 @@
         <v>2</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E164" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
       <c r="H164" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J164" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" s="7" customFormat="1">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -8223,20 +7924,20 @@
         <v>3</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E165" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G165" s="32"/>
       <c r="H165" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J165" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" s="7" customFormat="1">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -8247,20 +7948,20 @@
         <v>4</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E166" s="30"/>
       <c r="F166" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H166" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -8271,23 +7972,23 @@
         <v>5</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E167" s="30"/>
       <c r="F167" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H167" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J167" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -8298,23 +7999,23 @@
         <v>6</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E168" s="30"/>
       <c r="F168" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H168" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J168" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" s="7" customFormat="1">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -8325,23 +8026,23 @@
         <v>7</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E169" s="30"/>
       <c r="F169" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H169" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J169" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -8352,23 +8053,23 @@
         <v>8</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E170" s="30"/>
       <c r="F170" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H170" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J170" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" s="7" customFormat="1">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -8379,21 +8080,21 @@
         <v>1</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="32"/>
       <c r="H171" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J171" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" s="7" customFormat="1">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -8404,21 +8105,21 @@
         <v>2</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="32"/>
       <c r="H172" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J172" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" s="7" customFormat="1">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -8429,21 +8130,21 @@
         <v>3</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="32"/>
       <c r="H173" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J173" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" s="7" customFormat="1">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -8454,20 +8155,20 @@
         <v>4</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E174" s="30"/>
       <c r="F174" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H174" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="7" customFormat="1">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -8478,23 +8179,23 @@
         <v>5</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E175" s="30"/>
       <c r="F175" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H175" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J175" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" s="7" customFormat="1">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -8505,23 +8206,23 @@
         <v>6</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E176" s="30"/>
       <c r="F176" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H176" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J176" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" s="7" customFormat="1">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -8532,23 +8233,23 @@
         <v>7</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E177" s="30"/>
       <c r="F177" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H177" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J177" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" s="7" customFormat="1">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -8559,23 +8260,23 @@
         <v>8</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E178" s="30"/>
       <c r="F178" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G178" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H178" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J178" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" s="7" customFormat="1">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -8586,21 +8287,21 @@
         <v>1</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E179" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="32"/>
       <c r="H179" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J179" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" s="7" customFormat="1">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -8611,21 +8312,21 @@
         <v>2</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E180" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F180" s="32"/>
       <c r="G180" s="32"/>
       <c r="H180" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J180" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" s="7" customFormat="1">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -8636,20 +8337,20 @@
         <v>3</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E181" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G181" s="32"/>
       <c r="H181" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J181" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" s="7" customFormat="1">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -8660,20 +8361,20 @@
         <v>4</v>
       </c>
       <c r="D182" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E182" s="30"/>
       <c r="F182" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G182" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H182" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -8684,23 +8385,23 @@
         <v>5</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E183" s="30"/>
       <c r="F183" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G183" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H183" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J183" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -8711,23 +8412,23 @@
         <v>6</v>
       </c>
       <c r="D184" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E184" s="30"/>
       <c r="F184" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G184" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H184" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J184" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" s="7" customFormat="1">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -8738,23 +8439,23 @@
         <v>7</v>
       </c>
       <c r="D185" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E185" s="30"/>
       <c r="F185" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G185" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H185" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J185" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -8765,23 +8466,23 @@
         <v>8</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E186" s="30"/>
       <c r="F186" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G186" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H186" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J186" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" s="7" customFormat="1">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -8792,21 +8493,21 @@
         <v>1</v>
       </c>
       <c r="D187" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E187" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="32"/>
       <c r="H187" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J187" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" s="7" customFormat="1">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -8817,21 +8518,21 @@
         <v>2</v>
       </c>
       <c r="D188" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E188" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="32"/>
       <c r="H188" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J188" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" s="7" customFormat="1">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -8842,21 +8543,21 @@
         <v>3</v>
       </c>
       <c r="D189" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E189" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F189" s="32"/>
       <c r="G189" s="32"/>
       <c r="H189" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J189" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" s="7" customFormat="1">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -8867,20 +8568,20 @@
         <v>4</v>
       </c>
       <c r="D190" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E190" s="30"/>
       <c r="F190" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G190" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" s="7" customFormat="1">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -8891,23 +8592,23 @@
         <v>5</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E191" s="30"/>
       <c r="F191" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G191" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H191" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J191" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" s="7" customFormat="1">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -8918,23 +8619,23 @@
         <v>6</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E192" s="30"/>
       <c r="F192" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G192" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H192" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J192" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" s="7" customFormat="1">
       <c r="A193" s="7">
         <v>192</v>
       </c>
@@ -8945,23 +8646,23 @@
         <v>7</v>
       </c>
       <c r="D193" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E193" s="30"/>
       <c r="F193" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G193" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H193" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J193" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" s="7" customFormat="1">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -8972,23 +8673,23 @@
         <v>8</v>
       </c>
       <c r="D194" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E194" s="30"/>
       <c r="F194" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G194" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H194" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J194" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" s="7" customFormat="1">
       <c r="A195" s="7">
         <v>194</v>
       </c>
@@ -8999,425 +8700,425 @@
         <v>1</v>
       </c>
       <c r="D195" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="H195" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I195" s="16"/>
       <c r="J195" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" s="7" customFormat="1">
       <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="B196" s="45">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C196" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="H196" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I196" s="16"/>
       <c r="J196" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" s="7" customFormat="1">
       <c r="A197" s="7">
         <v>196</v>
       </c>
       <c r="B197" s="45">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C197" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E197" s="18"/>
       <c r="F197" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G197" s="19" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H197" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I197" s="16"/>
       <c r="J197" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" s="7" customFormat="1">
       <c r="A198" s="7">
         <v>197</v>
       </c>
       <c r="B198" s="45">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C198" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E198" s="18"/>
       <c r="F198" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G198" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H198" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I198" s="16"/>
       <c r="J198" s="16"/>
     </row>
-    <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="B199" s="45">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C199" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E199" s="18"/>
       <c r="F199" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G199" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I199" s="16"/>
       <c r="J199" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A200" s="7">
         <v>199</v>
       </c>
       <c r="B200" s="45">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C200" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D200" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E200" s="18"/>
       <c r="F200" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G200" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I200" s="16"/>
       <c r="J200" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" s="7" customFormat="1">
       <c r="A201" s="7">
         <v>200</v>
       </c>
       <c r="B201" s="45">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C201" s="18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G201" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I201" s="16"/>
       <c r="J201" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" s="7" customFormat="1" ht="16.5">
       <c r="A202" s="7">
         <v>201</v>
       </c>
       <c r="B202" s="45">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C202" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D202" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E202" s="18"/>
       <c r="F202" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G202" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H202" s="19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I202" s="16"/>
       <c r="J202" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" s="7" customFormat="1">
       <c r="A203" s="7">
         <v>202</v>
       </c>
       <c r="B203" s="34">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C203" s="21">
         <v>1</v>
       </c>
       <c r="D203" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E203" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="23"/>
       <c r="H203" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I203" s="20"/>
       <c r="J203" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" s="7" customFormat="1">
       <c r="A204" s="7">
         <v>203</v>
       </c>
       <c r="B204" s="34">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C204" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="23"/>
       <c r="H204" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I204" s="20"/>
       <c r="J204" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" s="7" customFormat="1">
       <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="B205" s="34">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C205" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E205" s="21"/>
       <c r="F205" s="52" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G205" s="23" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H205" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I205" s="20"/>
       <c r="J205" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" s="7" customFormat="1">
       <c r="A206" s="7">
         <v>205</v>
       </c>
       <c r="B206" s="34">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C206" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E206" s="21"/>
       <c r="F206" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G206" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H206" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I206" s="20"/>
       <c r="J206" s="20"/>
     </row>
-    <row r="207" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" s="7" customFormat="1">
       <c r="A207" s="7">
         <v>206</v>
       </c>
       <c r="B207" s="34">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C207" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E207" s="21"/>
       <c r="F207" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G207" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H207" s="24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I207" s="20"/>
       <c r="J207" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" s="7" customFormat="1">
       <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="B208" s="34">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C208" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E208" s="21"/>
       <c r="F208" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G208" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H208" s="24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I208" s="20"/>
       <c r="J208" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" s="7" customFormat="1">
       <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="34">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C209" s="21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E209" s="21"/>
       <c r="F209" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G209" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H209" s="24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I209" s="20"/>
       <c r="J209" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" s="7" customFormat="1">
       <c r="A210" s="7">
         <v>209</v>
       </c>
       <c r="B210" s="34">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C210" s="21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E210" s="21"/>
       <c r="F210" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G210" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H210" s="23" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I210" s="20"/>
       <c r="J210" s="20">
@@ -9442,146 +9143,146 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="51" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="7">
         <v>34</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="7">
         <v>35</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="7">
         <v>36</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="7">
         <v>37</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="7">
         <v>38</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="7">
         <v>39</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="7">
         <v>40</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="7">
         <v>41</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="7">
         <v>42</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="7">
         <v>43</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="7">
         <v>44</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="7">
         <v>45</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="7">
         <v>46</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="7">
         <v>47</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="7">
         <v>48</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="7">
         <v>49</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/activity_exchange_server.xlsx
+++ b/config_2.9/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="286">
   <si>
     <t>id|</t>
   </si>
@@ -1429,6 +1429,10 @@
   </si>
   <si>
     <t>600,600,0,0,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2022,7 +2026,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -3666,11 +3670,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M210"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E205" sqref="E205"/>
+      <selection pane="bottomRight" activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9008,7 +9012,7 @@
         <v>102</v>
       </c>
       <c r="H206" s="23" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I206" s="20"/>
       <c r="J206" s="20"/>

--- a/config_2.9/activity_exchange_server.xlsx
+++ b/config_2.9/activity_exchange_server.xlsx
@@ -1364,10 +1364,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>60000,6000,6000,6000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3000,3000,3000,3000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1501,6 +1497,10 @@
   </si>
   <si>
     <t>高档纯棉浴巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000,6000,6000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3254,7 +3254,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H35" s="48">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="20">
         <v>1612828800</v>
@@ -3305,7 +3305,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="57">
         <v>1613433600</v>
@@ -3336,7 +3336,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="57">
         <v>1613433600</v>
@@ -3367,7 +3367,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" s="57">
         <v>1613433600</v>
@@ -3398,7 +3398,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" s="66">
         <v>1614038400</v>
@@ -3409,7 +3409,7 @@
       <c r="E40" s="66"/>
       <c r="F40" s="66"/>
       <c r="G40" s="70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H40" s="67">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="66">
         <v>1614038400</v>
@@ -3440,7 +3440,7 @@
       <c r="E41" s="66"/>
       <c r="F41" s="66"/>
       <c r="G41" s="70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H41" s="67">
         <v>1</v>
@@ -3888,10 +3888,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>297</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3899,10 +3899,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3918,10 +3918,10 @@
   <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D236" sqref="D236"/>
+      <selection pane="bottomRight" activeCell="I202" sqref="I202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3947,7 +3947,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -9010,7 +9010,7 @@
         <v>51</v>
       </c>
       <c r="G197" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H197" s="19" t="s">
         <v>270</v>
@@ -9041,7 +9041,7 @@
         <v>102</v>
       </c>
       <c r="H198" s="19" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="I198" s="16"/>
       <c r="J198" s="16"/>
@@ -9067,7 +9067,7 @@
         <v>174</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I199" s="16"/>
       <c r="J199" s="16">
@@ -9095,7 +9095,7 @@
         <v>174</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I200" s="16"/>
       <c r="J200" s="16">
@@ -9123,7 +9123,7 @@
         <v>55</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I201" s="16"/>
       <c r="J201" s="16">
@@ -9151,7 +9151,7 @@
         <v>174</v>
       </c>
       <c r="H202" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I202" s="16"/>
       <c r="J202" s="16">
@@ -9225,10 +9225,10 @@
       </c>
       <c r="E205" s="21"/>
       <c r="F205" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G205" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H205" s="23" t="s">
         <v>270</v>
@@ -9259,7 +9259,7 @@
         <v>102</v>
       </c>
       <c r="H206" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I206" s="20"/>
       <c r="J206" s="20"/>
@@ -9285,7 +9285,7 @@
         <v>61</v>
       </c>
       <c r="H207" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I207" s="20"/>
       <c r="J207" s="20">
@@ -9313,7 +9313,7 @@
         <v>177</v>
       </c>
       <c r="H208" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I208" s="20"/>
       <c r="J208" s="20">
@@ -9341,7 +9341,7 @@
         <v>55</v>
       </c>
       <c r="H209" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I209" s="20"/>
       <c r="J209" s="20">
@@ -9369,7 +9369,7 @@
         <v>213</v>
       </c>
       <c r="H210" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I210" s="20"/>
       <c r="J210" s="20">
@@ -9397,7 +9397,7 @@
         <v>223</v>
       </c>
       <c r="H211" s="62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I211" s="57"/>
       <c r="J211" s="57">
@@ -9425,7 +9425,7 @@
         <v>224</v>
       </c>
       <c r="H212" s="62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I212" s="57"/>
       <c r="J212" s="57">
@@ -9453,7 +9453,7 @@
         <v>241</v>
       </c>
       <c r="H213" s="62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I213" s="57"/>
       <c r="J213" s="57">
@@ -9481,7 +9481,7 @@
         <v>224</v>
       </c>
       <c r="H214" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I214" s="57"/>
       <c r="J214" s="57">
@@ -9509,7 +9509,7 @@
         <v>37</v>
       </c>
       <c r="H215" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I215" s="57"/>
       <c r="J215" s="57">
@@ -9537,7 +9537,7 @@
         <v>242</v>
       </c>
       <c r="H216" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I216" s="57"/>
       <c r="J216" s="57">
@@ -9562,7 +9562,7 @@
         <v>41</v>
       </c>
       <c r="G217" s="64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H217" s="62" t="s">
         <v>229</v>
@@ -9590,7 +9590,7 @@
         <v>41</v>
       </c>
       <c r="G218" s="64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H218" s="62" t="s">
         <v>229</v>
@@ -9642,7 +9642,7 @@
         <v>130</v>
       </c>
       <c r="E220" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F220" s="32"/>
       <c r="G220" s="32"/>
@@ -9667,7 +9667,7 @@
         <v>130</v>
       </c>
       <c r="E221" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F221" s="32"/>
       <c r="G221" s="32"/>
@@ -9692,7 +9692,7 @@
         <v>130</v>
       </c>
       <c r="E222" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G222" s="32"/>
       <c r="H222" s="32" t="s">
@@ -9848,7 +9848,7 @@
         <v>131</v>
       </c>
       <c r="E228" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F228" s="32"/>
       <c r="G228" s="32"/>
@@ -9873,7 +9873,7 @@
         <v>131</v>
       </c>
       <c r="E229" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F229" s="32"/>
       <c r="G229" s="32"/>
@@ -9898,7 +9898,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F230" s="32"/>
       <c r="G230" s="32"/>
@@ -10067,10 +10067,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10078,7 +10078,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10086,7 +10086,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10094,7 +10094,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10102,7 +10102,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10110,7 +10110,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10118,7 +10118,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10126,7 +10126,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10134,7 +10134,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10142,7 +10142,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10150,7 +10150,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10158,7 +10158,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10166,7 +10166,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10174,7 +10174,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10182,7 +10182,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10190,7 +10190,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10198,7 +10198,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/activity_exchange_server.xlsx
+++ b/config_2.9/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="303">
   <si>
     <t>id|</t>
   </si>
@@ -3917,7 +3917,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10055,8 +10055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10090,116 +10090,60 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7">
-        <v>36</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7">
-        <v>37</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7">
-        <v>38</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7">
-        <v>39</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7">
-        <v>40</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7">
-        <v>41</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7">
-        <v>42</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7">
-        <v>43</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7">
-        <v>44</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="41"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7">
-        <v>45</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7">
-        <v>46</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="41"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7">
-        <v>47</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7">
-        <v>48</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7">
-        <v>49</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_2.9/activity_exchange_server.xlsx
+++ b/config_2.9/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="303">
   <si>
     <t>id|</t>
   </si>
@@ -1453,6 +1453,54 @@
   </si>
   <si>
     <t>0,0,1,1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福利--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>团团圆圆闹元宵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元宵福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在元宵福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐福记礼盒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀核桃4罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档纯棉浴巾</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1539,7 +1587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,6 +1627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,7 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1793,6 +1847,24 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2073,8 +2145,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3321,23 +3393,67 @@
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
     </row>
-    <row r="40" spans="1:16" s="26" customFormat="1">
-      <c r="A40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:16" s="26" customFormat="1">
-      <c r="A41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="15"/>
+    <row r="40" spans="1:16" s="46" customFormat="1">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="66">
+        <v>1614038400</v>
+      </c>
+      <c r="D40" s="66">
+        <v>1614614399</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="67">
+        <v>1</v>
+      </c>
+      <c r="I40" s="66">
+        <v>27</v>
+      </c>
+      <c r="J40" s="68">
+        <v>39</v>
+      </c>
+      <c r="K40" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="29" customFormat="1">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="66">
+        <v>1614038400</v>
+      </c>
+      <c r="D41" s="66">
+        <v>1614614399</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="67">
+        <v>1</v>
+      </c>
+      <c r="I41" s="66">
+        <v>28</v>
+      </c>
+      <c r="J41" s="68">
+        <v>40</v>
+      </c>
+      <c r="K41" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:16" s="26" customFormat="1">
       <c r="A42" s="7"/>
@@ -3435,10 +3551,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3767,6 +3883,28 @@
         <v>265</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3777,13 +3915,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M219"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H220" sqref="H220"/>
+      <selection pane="bottomRight" activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9287,7 +9425,7 @@
         <v>224</v>
       </c>
       <c r="H212" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I212" s="57"/>
       <c r="J212" s="57">
@@ -9312,10 +9450,10 @@
         <v>41</v>
       </c>
       <c r="G213" s="64" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="H213" s="62" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="I213" s="57"/>
       <c r="J213" s="57">
@@ -9343,7 +9481,7 @@
         <v>224</v>
       </c>
       <c r="H214" s="62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I214" s="57"/>
       <c r="J214" s="57">
@@ -9396,10 +9534,10 @@
         <v>41</v>
       </c>
       <c r="G216" s="64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H216" s="62" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="I216" s="57"/>
       <c r="J216" s="57">
@@ -9424,10 +9562,10 @@
         <v>41</v>
       </c>
       <c r="G217" s="64" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="H217" s="62" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="I217" s="57"/>
       <c r="J217" s="57">
@@ -9452,10 +9590,10 @@
         <v>41</v>
       </c>
       <c r="G218" s="64" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="H218" s="62" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="I218" s="57"/>
       <c r="J218" s="57">
@@ -9488,6 +9626,419 @@
       <c r="I219" s="57"/>
       <c r="J219" s="57">
         <v>9999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="7" customFormat="1">
+      <c r="A220" s="7">
+        <v>219</v>
+      </c>
+      <c r="B220" s="30">
+        <v>39</v>
+      </c>
+      <c r="C220" s="30">
+        <v>1</v>
+      </c>
+      <c r="D220" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J220" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" s="7" customFormat="1">
+      <c r="A221" s="7">
+        <v>220</v>
+      </c>
+      <c r="B221" s="30">
+        <v>39</v>
+      </c>
+      <c r="C221" s="30">
+        <v>2</v>
+      </c>
+      <c r="D221" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J221" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="7" customFormat="1">
+      <c r="A222" s="7">
+        <v>221</v>
+      </c>
+      <c r="B222" s="30">
+        <v>39</v>
+      </c>
+      <c r="C222" s="30">
+        <v>3</v>
+      </c>
+      <c r="D222" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E222" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="G222" s="32"/>
+      <c r="H222" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J222" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="7" customFormat="1">
+      <c r="A223" s="7">
+        <v>222</v>
+      </c>
+      <c r="B223" s="30">
+        <v>39</v>
+      </c>
+      <c r="C223" s="30">
+        <v>4</v>
+      </c>
+      <c r="D223" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E223" s="30"/>
+      <c r="F223" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H223" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A224" s="7">
+        <v>223</v>
+      </c>
+      <c r="B224" s="30">
+        <v>39</v>
+      </c>
+      <c r="C224" s="30">
+        <v>5</v>
+      </c>
+      <c r="D224" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E224" s="30"/>
+      <c r="F224" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G224" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H224" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J224" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A225" s="7">
+        <v>224</v>
+      </c>
+      <c r="B225" s="30">
+        <v>39</v>
+      </c>
+      <c r="C225" s="30">
+        <v>6</v>
+      </c>
+      <c r="D225" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E225" s="30"/>
+      <c r="F225" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H225" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J225" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" s="7" customFormat="1">
+      <c r="A226" s="7">
+        <v>225</v>
+      </c>
+      <c r="B226" s="30">
+        <v>39</v>
+      </c>
+      <c r="C226" s="30">
+        <v>7</v>
+      </c>
+      <c r="D226" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E226" s="30"/>
+      <c r="F226" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G226" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H226" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J226" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A227" s="7">
+        <v>226</v>
+      </c>
+      <c r="B227" s="30">
+        <v>39</v>
+      </c>
+      <c r="C227" s="30">
+        <v>8</v>
+      </c>
+      <c r="D227" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E227" s="30"/>
+      <c r="F227" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G227" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H227" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J227" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" s="7" customFormat="1">
+      <c r="A228" s="7">
+        <v>227</v>
+      </c>
+      <c r="B228" s="30">
+        <v>40</v>
+      </c>
+      <c r="C228" s="30">
+        <v>1</v>
+      </c>
+      <c r="D228" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E228" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32"/>
+      <c r="H228" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J228" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" s="7" customFormat="1">
+      <c r="A229" s="7">
+        <v>228</v>
+      </c>
+      <c r="B229" s="30">
+        <v>40</v>
+      </c>
+      <c r="C229" s="30">
+        <v>2</v>
+      </c>
+      <c r="D229" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J229" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" s="7" customFormat="1">
+      <c r="A230" s="7">
+        <v>229</v>
+      </c>
+      <c r="B230" s="30">
+        <v>40</v>
+      </c>
+      <c r="C230" s="30">
+        <v>3</v>
+      </c>
+      <c r="D230" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32"/>
+      <c r="H230" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J230" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" s="7" customFormat="1">
+      <c r="A231" s="7">
+        <v>230</v>
+      </c>
+      <c r="B231" s="30">
+        <v>40</v>
+      </c>
+      <c r="C231" s="30">
+        <v>4</v>
+      </c>
+      <c r="D231" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E231" s="30"/>
+      <c r="F231" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G231" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H231" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" s="7" customFormat="1">
+      <c r="A232" s="7">
+        <v>231</v>
+      </c>
+      <c r="B232" s="30">
+        <v>40</v>
+      </c>
+      <c r="C232" s="30">
+        <v>5</v>
+      </c>
+      <c r="D232" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E232" s="30"/>
+      <c r="F232" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H232" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J232" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" s="7" customFormat="1">
+      <c r="A233" s="7">
+        <v>232</v>
+      </c>
+      <c r="B233" s="30">
+        <v>40</v>
+      </c>
+      <c r="C233" s="30">
+        <v>6</v>
+      </c>
+      <c r="D233" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E233" s="30"/>
+      <c r="F233" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G233" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H233" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J233" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" s="7" customFormat="1">
+      <c r="A234" s="7">
+        <v>233</v>
+      </c>
+      <c r="B234" s="30">
+        <v>40</v>
+      </c>
+      <c r="C234" s="30">
+        <v>7</v>
+      </c>
+      <c r="D234" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E234" s="30"/>
+      <c r="F234" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H234" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J234" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" s="7" customFormat="1">
+      <c r="A235" s="7">
+        <v>234</v>
+      </c>
+      <c r="B235" s="30">
+        <v>40</v>
+      </c>
+      <c r="C235" s="30">
+        <v>8</v>
+      </c>
+      <c r="D235" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E235" s="30"/>
+      <c r="F235" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G235" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H235" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J235" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
